--- a/Mifos Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Accrual</t>
   </si>
   <si>
-    <t>4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC</t>
-  </si>
-  <si>
     <t>office</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Groups4200a</t>
+  </si>
+  <si>
+    <t>4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PER-1st</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -392,6 +391,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,26 +707,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>54</v>
+      <c r="B3" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,26 +778,26 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>42019</v>
       </c>
     </row>
@@ -1698,8 +1698,8 @@
       <c r="J2" s="11">
         <v>0</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -1732,8 +1732,8 @@
       <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -1766,8 +1766,8 @@
       <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -1801,7 +1801,7 @@
         <v>10000</v>
       </c>
       <c r="K5"/>
-      <c r="L5" s="20"/>
+      <c r="L5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,74 +1812,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="22">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="22">
         <v>42005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="23">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="21" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>63</v>
+      <c r="B8" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
